--- a/shop_emotion/신제품보만 BF1126C_neutral.xlsx
+++ b/shop_emotion/신제품보만 BF1126C_neutral.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>확률</t>
+          <t>평점</t>
         </is>
       </c>
     </row>
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>56.15257620811462</v>
+        <v>2.807628810405731</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>58.30143094062805</v>
+        <v>2.915071547031403</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>61.66161298751831</v>
+        <v>3.083080649375916</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>58.66127014160156</v>
+        <v>2.933063507080078</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>51.54598355293274</v>
+        <v>2.577299177646637</v>
       </c>
     </row>
   </sheetData>
